--- a/game_demo_gd_4/mmo_demo/docs/数据表.xlsx
+++ b/game_demo_gd_4/mmo_demo/docs/数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="技能设计" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="建筑" sheetId="5" r:id="rId5"/>
     <sheet name="合成|recipe" sheetId="6" r:id="rId6"/>
     <sheet name="工作台" sheetId="7" r:id="rId7"/>
+    <sheet name="伤害类型" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="556">
   <si>
     <t>触发条件</t>
   </si>
@@ -1658,6 +1659,36 @@
   </si>
   <si>
     <t>珠宝台</t>
+  </si>
+  <si>
+    <t>无装甲</t>
+  </si>
+  <si>
+    <t>轻甲</t>
+  </si>
+  <si>
+    <t>中甲</t>
+  </si>
+  <si>
+    <t>重甲</t>
+  </si>
+  <si>
+    <t>城甲</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>攻城</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>混乱</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1701,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2139,10 +2177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2151,34 +2189,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2190,102 +2225,113 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2294,7 +2340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2657,43 +2703,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="98.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="98.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -2701,7 +2747,7 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -2721,7 +2767,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -2732,7 +2778,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -2743,7 +2789,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
@@ -2757,7 +2803,7 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
@@ -2768,7 +2814,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -2788,7 +2834,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
@@ -2796,12 +2842,12 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
@@ -2818,7 +2864,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
@@ -2829,7 +2875,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
@@ -2840,67 +2886,67 @@
       </c>
     </row>
     <row r="14" ht="27" spans="2:2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" ht="27" spans="2:2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C26" t="s">
@@ -2914,7 +2960,7 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C27" t="s">
@@ -2928,7 +2974,7 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C28" t="s">
@@ -2939,7 +2985,7 @@
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C29" t="s">
@@ -2956,7 +3002,7 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C30" t="s">
@@ -2973,7 +3019,7 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
@@ -2987,12 +3033,12 @@
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C33" t="s">
@@ -3009,7 +3055,7 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C34" t="s">
@@ -3023,7 +3069,7 @@
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C35" t="s">
@@ -3034,7 +3080,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
@@ -3042,287 +3088,287 @@
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="54" ht="27" spans="2:2">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" ht="40.5" spans="2:2">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="56" ht="27" spans="2:2">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" ht="27" spans="2:2">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:2">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="60" ht="27" spans="2:2">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="62" ht="27" spans="2:2">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="66" ht="27" spans="2:2">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="67" ht="27" spans="2:2">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" ht="27" spans="2:2">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="72" ht="27" spans="2:2">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="80" ht="27" spans="2:2">
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="84" ht="27" spans="2:2">
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="85" ht="27" spans="2:2">
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="89" ht="27" spans="2:2">
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="90" ht="27" spans="2:2">
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="91" ht="27" spans="2:2">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="93" ht="27" spans="2:2">
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="7" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3345,207 +3391,207 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3585,44 +3631,44 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" spans="4:8">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3647,22 +3693,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3823,16 +3869,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6807,7 +6853,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6816,4 +6862,139 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>